--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,181 +40,169 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>demand</t>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>supermarket</t>
   </si>
   <si>
     <t>co</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>food</t>
-  </si>
-  <si>
-    <t>supermarket</t>
   </si>
   <si>
     <t>corona</t>
@@ -583,10 +571,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -644,13 +632,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -662,13 +650,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K3">
-        <v>0.96875</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L3">
         <v>31</v>
@@ -686,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -694,37 +682,37 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.88</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C4">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4">
-        <v>22</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -736,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -744,13 +732,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -762,19 +750,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K5">
-        <v>0.9444444444444444</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -786,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -794,13 +782,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7467532467532467</v>
+        <v>0.6335616438356164</v>
       </c>
       <c r="C6">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="D6">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -812,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -836,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -844,13 +832,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6666666666666666</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -862,19 +850,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K7">
-        <v>0.8888888888888888</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -886,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -894,13 +882,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.625</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -912,19 +900,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K8">
-        <v>0.8431372549019608</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L8">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -936,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -944,13 +932,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5714285714285714</v>
+        <v>0.32</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -962,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K9">
-        <v>0.8392857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -986,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -994,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4334763948497854</v>
+        <v>0.3116883116883117</v>
       </c>
       <c r="C10">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1012,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K10">
-        <v>0.7931034482758621</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L10">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="M10">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1036,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1044,13 +1032,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4285714285714285</v>
+        <v>0.2829457364341085</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1062,19 +1050,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16</v>
+        <v>370</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K11">
-        <v>0.7758620689655172</v>
+        <v>0.78125</v>
       </c>
       <c r="L11">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="M11">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1086,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1094,13 +1082,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4137931034482759</v>
+        <v>0.2486772486772487</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1112,19 +1100,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K12">
-        <v>0.7692307692307693</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1136,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1144,13 +1132,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4074074074074074</v>
+        <v>0.2147651006711409</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1162,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K13">
-        <v>0.7450980392156863</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L13">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M13">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1186,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1194,287 +1182,167 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.313953488372093</v>
+        <v>0.1349206349206349</v>
       </c>
       <c r="C14">
+        <v>34</v>
+      </c>
+      <c r="D14">
+        <v>34</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>218</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14">
+        <v>0.7464788732394366</v>
+      </c>
+      <c r="L14">
+        <v>106</v>
+      </c>
+      <c r="M14">
+        <v>106</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15">
+        <v>0.7452830188679245</v>
+      </c>
+      <c r="L15">
+        <v>79</v>
+      </c>
+      <c r="M15">
+        <v>79</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>27</v>
       </c>
-      <c r="D14">
-        <v>27</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>59</v>
-      </c>
-      <c r="J14" s="1" t="s">
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="L16">
+        <v>36</v>
+      </c>
+      <c r="M16">
+        <v>36</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17">
+        <v>0.7</v>
+      </c>
+      <c r="L17">
+        <v>35</v>
+      </c>
+      <c r="M17">
+        <v>35</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18">
+        <v>0.675</v>
+      </c>
+      <c r="L18">
+        <v>108</v>
+      </c>
+      <c r="M18">
+        <v>108</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="K14">
-        <v>0.7222222222222222</v>
-      </c>
-      <c r="L14">
-        <v>39</v>
-      </c>
-      <c r="M14">
-        <v>39</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.3125</v>
-      </c>
-      <c r="C15">
-        <v>25</v>
-      </c>
-      <c r="D15">
-        <v>25</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>55</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15">
-        <v>0.72</v>
-      </c>
-      <c r="L15">
-        <v>18</v>
-      </c>
-      <c r="M15">
-        <v>18</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.2173913043478261</v>
-      </c>
-      <c r="C16">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>10</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>36</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16">
-        <v>0.6875</v>
-      </c>
-      <c r="L16">
-        <v>11</v>
-      </c>
-      <c r="M16">
-        <v>11</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.1727272727272727</v>
-      </c>
-      <c r="C17">
-        <v>19</v>
-      </c>
-      <c r="D17">
-        <v>19</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>91</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17">
-        <v>0.684931506849315</v>
-      </c>
-      <c r="L17">
-        <v>50</v>
-      </c>
-      <c r="M17">
-        <v>50</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.1021505376344086</v>
-      </c>
-      <c r="C18">
-        <v>19</v>
-      </c>
-      <c r="D18">
-        <v>19</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>167</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18">
-        <v>0.68</v>
-      </c>
-      <c r="L18">
-        <v>17</v>
-      </c>
-      <c r="M18">
-        <v>17</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.007138221933809215</v>
-      </c>
-      <c r="C19">
-        <v>11</v>
-      </c>
-      <c r="D19">
-        <v>34</v>
-      </c>
-      <c r="E19">
-        <v>0.68</v>
-      </c>
-      <c r="F19">
-        <v>0.32</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1530</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="K19">
         <v>0.6666666666666666</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="M19">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1486,73 +1354,73 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K20">
-        <v>0.6538461538461539</v>
+        <v>0.648936170212766</v>
       </c>
       <c r="L20">
+        <v>61</v>
+      </c>
+      <c r="M20">
+        <v>61</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21">
+        <v>0.6382978723404256</v>
+      </c>
+      <c r="L21">
+        <v>30</v>
+      </c>
+      <c r="M21">
+        <v>30</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>17</v>
       </c>
-      <c r="M20">
-        <v>17</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K21">
-        <v>0.6056338028169014</v>
-      </c>
-      <c r="L21">
-        <v>129</v>
-      </c>
-      <c r="M21">
-        <v>129</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+    </row>
+    <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K22">
-        <v>0.5882352941176471</v>
+        <v>0.625</v>
       </c>
       <c r="L22">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1564,21 +1432,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K23">
-        <v>0.5789473684210527</v>
+        <v>0.5953002610966057</v>
       </c>
       <c r="L23">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="M23">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1590,15 +1458,15 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K24">
-        <v>0.5757575757575758</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="L24">
         <v>19</v>
@@ -1616,203 +1484,203 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25">
+        <v>0.4911764705882353</v>
+      </c>
+      <c r="L25">
+        <v>167</v>
+      </c>
+      <c r="M25">
+        <v>167</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K26">
+        <v>0.4831460674157304</v>
+      </c>
+      <c r="L26">
+        <v>43</v>
+      </c>
+      <c r="M26">
+        <v>43</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27">
+        <v>0.4769230769230769</v>
+      </c>
+      <c r="L27">
+        <v>31</v>
+      </c>
+      <c r="M27">
+        <v>31</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28">
+        <v>0.4745762711864407</v>
+      </c>
+      <c r="L28">
+        <v>140</v>
+      </c>
+      <c r="M28">
+        <v>140</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29">
+        <v>0.4435146443514644</v>
+      </c>
+      <c r="L29">
+        <v>106</v>
+      </c>
+      <c r="M29">
+        <v>106</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K25">
-        <v>0.5666666666666667</v>
-      </c>
-      <c r="L25">
-        <v>17</v>
-      </c>
-      <c r="M25">
-        <v>17</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
+      <c r="K30">
+        <v>0.4418604651162791</v>
+      </c>
+      <c r="L30">
+        <v>19</v>
+      </c>
+      <c r="M30">
+        <v>19</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K26">
-        <v>0.5652173913043478</v>
-      </c>
-      <c r="L26">
-        <v>52</v>
-      </c>
-      <c r="M26">
-        <v>52</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
+      <c r="K31">
+        <v>0.4383561643835616</v>
+      </c>
+      <c r="L31">
+        <v>32</v>
+      </c>
+      <c r="M31">
+        <v>32</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K27">
-        <v>0.5416666666666666</v>
-      </c>
-      <c r="L27">
-        <v>78</v>
-      </c>
-      <c r="M27">
-        <v>78</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K28">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="L28">
-        <v>15</v>
-      </c>
-      <c r="M28">
-        <v>15</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K29">
-        <v>0.5142857142857142</v>
-      </c>
-      <c r="L29">
-        <v>18</v>
-      </c>
-      <c r="M29">
-        <v>18</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K30">
-        <v>0.5</v>
-      </c>
-      <c r="L30">
-        <v>11</v>
-      </c>
-      <c r="M30">
-        <v>11</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K31">
-        <v>0.4883720930232558</v>
-      </c>
-      <c r="L31">
-        <v>63</v>
-      </c>
-      <c r="M31">
-        <v>63</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="K32">
-        <v>0.4736842105263158</v>
+        <v>0.421875</v>
       </c>
       <c r="L32">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M32">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1824,21 +1692,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>0.4375</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L33">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="M33">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1850,21 +1718,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K34">
-        <v>0.4054054054054054</v>
+        <v>0.1574803149606299</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1876,21 +1744,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>22</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K35">
-        <v>0.07575757575757576</v>
+        <v>0.1033653846153846</v>
       </c>
       <c r="L35">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="M35">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1902,21 +1770,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>183</v>
+        <v>373</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K36">
-        <v>0.07333333333333333</v>
+        <v>0.08851674641148326</v>
       </c>
       <c r="L36">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="M36">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1928,21 +1796,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>139</v>
+        <v>381</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K37">
-        <v>0.06698564593301436</v>
+        <v>0.06168831168831169</v>
       </c>
       <c r="L37">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M37">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1954,21 +1822,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>195</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K38">
-        <v>0.05365853658536585</v>
+        <v>0.058165548098434</v>
       </c>
       <c r="L38">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="M38">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1980,189 +1848,189 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>388</v>
+        <v>842</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K39">
-        <v>0.04472843450479233</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L39">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="M39">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="N39">
-        <v>0.88</v>
+        <v>0.98</v>
       </c>
       <c r="O39">
-        <v>0.12</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>299</v>
+        <v>852</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K40">
-        <v>0.03990610328638498</v>
+        <v>0.04742268041237113</v>
       </c>
       <c r="L40">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M40">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>409</v>
+        <v>462</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K41">
-        <v>0.0304932735426009</v>
+        <v>0.04411074612857813</v>
       </c>
       <c r="L41">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="M41">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="N41">
-        <v>0.8100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="O41">
-        <v>0.1899999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>1081</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K42">
-        <v>0.02320185614849188</v>
+        <v>0.04267589388696655</v>
       </c>
       <c r="L42">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="M42">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="N42">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>421</v>
+        <v>830</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K43">
-        <v>0.02252252252252252</v>
+        <v>0.02977346278317152</v>
       </c>
       <c r="L43">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="M43">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>434</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="K44">
-        <v>0.01481004507405023</v>
+        <v>0.02694300518134715</v>
       </c>
       <c r="L44">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M44">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N44">
-        <v>0.68</v>
+        <v>0.9</v>
       </c>
       <c r="O44">
-        <v>0.32</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>1530</v>
+        <v>939</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K45">
-        <v>0.01067168863779033</v>
+        <v>0.01789638932496075</v>
       </c>
       <c r="L45">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="M45">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="N45">
-        <v>0.8100000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="O45">
-        <v>0.1899999999999999</v>
+        <v>0.22</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>1576</v>
+        <v>3128</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,30 +43,21 @@
     <t>crude</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -76,127 +67,127 @@
     <t>stop</t>
   </si>
   <si>
+    <t>demand</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>credit</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>essential</t>
+    <t>share</t>
+  </si>
+  <si>
+    <t>online</t>
   </si>
   <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
     <t>san</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
   </si>
   <si>
     <t>co</t>
@@ -563,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,7 +562,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
         <v>31</v>
@@ -632,13 +623,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -650,19 +641,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K3">
-        <v>0.9393939393939394</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -674,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -682,13 +673,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6551724137931034</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -700,19 +691,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -724,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -732,13 +723,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6388888888888888</v>
+        <v>0.660958904109589</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -750,19 +741,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>0.8913043478260869</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -774,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -782,13 +773,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6335616438356164</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="C6">
-        <v>185</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>185</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -800,31 +791,31 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>0.8846153846153846</v>
+        <v>0.8738738738738738</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -832,13 +823,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5263157894736842</v>
+        <v>0.2926356589147287</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -850,19 +841,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>18</v>
+        <v>365</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.8660714285714286</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L7">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="M7">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -874,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -882,13 +873,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4871794871794872</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -900,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>0.8518518518518519</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -924,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -932,37 +923,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.32</v>
+        <v>0.2446808510638298</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -974,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -982,13 +973,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3116883116883117</v>
+        <v>0.2147651006711409</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1000,19 +991,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.8170731707317073</v>
+        <v>0.8046875</v>
       </c>
       <c r="L10">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="M10">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1024,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1032,13 +1023,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2829457364341085</v>
+        <v>0.0873015873015873</v>
       </c>
       <c r="C11">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1050,19 +1041,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>370</v>
+        <v>230</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K11">
-        <v>0.78125</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M11">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1074,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1082,13 +1073,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.2486772486772487</v>
+        <v>0.06166219839142091</v>
       </c>
       <c r="C12">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1100,119 +1091,71 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>142</v>
+        <v>350</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12">
+        <v>0.7446808510638298</v>
+      </c>
+      <c r="L12">
+        <v>35</v>
+      </c>
+      <c r="M12">
+        <v>35</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13">
+        <v>0.7358490566037735</v>
+      </c>
+      <c r="L13">
+        <v>78</v>
+      </c>
+      <c r="M13">
+        <v>78</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K12">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="L12">
-        <v>92</v>
-      </c>
-      <c r="M12">
-        <v>92</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.2147651006711409</v>
-      </c>
-      <c r="C13">
-        <v>32</v>
-      </c>
-      <c r="D13">
-        <v>32</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>117</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13">
-        <v>0.7586206896551724</v>
-      </c>
-      <c r="L13">
-        <v>44</v>
-      </c>
-      <c r="M13">
-        <v>44</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.1349206349206349</v>
-      </c>
-      <c r="C14">
-        <v>34</v>
-      </c>
-      <c r="D14">
-        <v>34</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>218</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="K14">
-        <v>0.7464788732394366</v>
+        <v>0.725</v>
       </c>
       <c r="L14">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="M14">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1224,21 +1167,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K15">
-        <v>0.7452830188679245</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L15">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="M15">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1250,21 +1193,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K16">
-        <v>0.7058823529411765</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L16">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M16">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1276,21 +1219,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K17">
-        <v>0.7</v>
+        <v>0.675</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1302,21 +1245,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K18">
-        <v>0.675</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L18">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="M18">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1328,21 +1271,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K19">
-        <v>0.6666666666666666</v>
+        <v>0.66</v>
       </c>
       <c r="L19">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="M19">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1354,21 +1297,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K20">
-        <v>0.648936170212766</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L20">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="M20">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1380,21 +1323,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K21">
-        <v>0.6382978723404256</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1406,21 +1349,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K22">
-        <v>0.625</v>
+        <v>0.5953002610966057</v>
       </c>
       <c r="L22">
-        <v>30</v>
+        <v>228</v>
       </c>
       <c r="M22">
-        <v>30</v>
+        <v>228</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1432,21 +1375,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K23">
-        <v>0.5953002610966057</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L23">
-        <v>228</v>
+        <v>20</v>
       </c>
       <c r="M23">
-        <v>228</v>
+        <v>20</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1458,21 +1401,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>155</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>0.5277777777777778</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L24">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M24">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1484,21 +1427,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>0.4911764705882353</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L25">
-        <v>167</v>
+        <v>49</v>
       </c>
       <c r="M25">
-        <v>167</v>
+        <v>49</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1510,21 +1453,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>173</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K26">
-        <v>0.4831460674157304</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L26">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="M26">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1536,21 +1479,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>0.4769230769230769</v>
+        <v>0.5118644067796611</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="M27">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1562,21 +1505,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>34</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K28">
-        <v>0.4745762711864407</v>
+        <v>0.488235294117647</v>
       </c>
       <c r="L28">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="M28">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1588,21 +1531,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>155</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>0.4435146443514644</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L29">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="M29">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1614,21 +1557,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>133</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>0.4418604651162791</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L30">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1640,21 +1583,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>0.4383561643835616</v>
+        <v>0.3849372384937239</v>
       </c>
       <c r="L31">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="M31">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1666,21 +1609,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>41</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>0.421875</v>
+        <v>0.34375</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1692,21 +1635,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>0.3974358974358974</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L33">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M33">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1718,21 +1661,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>0.1574803149606299</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L34">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M34">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1744,177 +1687,177 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>107</v>
+        <v>380</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>0.1033653846153846</v>
+        <v>0.08433734939759036</v>
       </c>
       <c r="L35">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M35">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>373</v>
+        <v>380</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K36">
-        <v>0.08851674641148326</v>
+        <v>0.07399103139013453</v>
       </c>
       <c r="L36">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="M36">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>381</v>
+        <v>826</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K37">
-        <v>0.06168831168831169</v>
+        <v>0.07111111111111111</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="M37">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>289</v>
+        <v>836</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K38">
-        <v>0.058165548098434</v>
+        <v>0.05701078582434515</v>
       </c>
       <c r="L38">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="M38">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>842</v>
+        <v>612</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K39">
-        <v>0.05333333333333334</v>
+        <v>0.04948453608247422</v>
       </c>
       <c r="L39">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="M39">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="N39">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O39">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>852</v>
+        <v>461</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K40">
-        <v>0.04742268041237113</v>
+        <v>0.03695150115473441</v>
       </c>
       <c r="L40">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M40">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N40">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O40">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>462</v>
+        <v>834</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K41">
-        <v>0.04411074612857813</v>
+        <v>0.03609939052977028</v>
       </c>
       <c r="L41">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="M41">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="N41">
         <v>0.89</v>
@@ -1926,111 +1869,85 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>2037</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K42">
-        <v>0.04267589388696655</v>
+        <v>0.02911679068262698</v>
       </c>
       <c r="L42">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="M42">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>830</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K43">
-        <v>0.02977346278317152</v>
+        <v>0.02176165803108808</v>
       </c>
       <c r="L43">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="M43">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="N43">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="O43">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>2998</v>
+        <v>944</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K44">
-        <v>0.02694300518134715</v>
+        <v>0.01788515845622843</v>
       </c>
       <c r="L44">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="M44">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="N44">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="O44">
-        <v>0.09999999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="45" spans="10:17">
-      <c r="J45" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K45">
-        <v>0.01789638932496075</v>
-      </c>
-      <c r="L45">
-        <v>57</v>
-      </c>
-      <c r="M45">
-        <v>73</v>
-      </c>
-      <c r="N45">
-        <v>0.78</v>
-      </c>
-      <c r="O45">
-        <v>0.22</v>
-      </c>
-      <c r="P45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45">
-        <v>3128</v>
+        <v>3130</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,18 +46,21 @@
     <t>fraud</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -73,130 +76,163 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>share</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
+    <t>sure</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>essential</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>consumer</t>
+    <t>supermarket</t>
   </si>
   <si>
     <t>san</t>
   </si>
   <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>food</t>
   </si>
   <si>
-    <t>corona</t>
+    <t>prices</t>
   </si>
 </sst>
 </file>
@@ -554,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,10 +598,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -623,13 +659,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -641,19 +677,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K3">
-        <v>0.9615384615384616</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -665,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -673,13 +709,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6666666666666666</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -691,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -715,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -723,13 +759,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.660958904109589</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C5">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -741,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5">
         <v>0.9130434782608695</v>
@@ -773,13 +809,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2933333333333333</v>
+        <v>0.6198630136986302</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -791,31 +827,31 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6">
-        <v>0.8738738738738738</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="N6">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -823,13 +859,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2926356589147287</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C7">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -841,19 +877,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>365</v>
+        <v>32</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7">
+        <v>0.8846153846153846</v>
+      </c>
+      <c r="L7">
         <v>23</v>
       </c>
-      <c r="K7">
-        <v>0.8484848484848485</v>
-      </c>
-      <c r="L7">
-        <v>28</v>
-      </c>
       <c r="M7">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -865,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -873,13 +909,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2597402597402597</v>
+        <v>0.2906976744186047</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -891,19 +927,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>57</v>
+        <v>366</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K8">
-        <v>0.8170731707317073</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L8">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="M8">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -915,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -923,37 +959,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2446808510638298</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="C9">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="E9">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K9">
-        <v>0.8055555555555556</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L9">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="M9">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -965,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -973,37 +1009,37 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2147651006711409</v>
+        <v>0.2180851063829787</v>
       </c>
       <c r="C10">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D10">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K10">
-        <v>0.8046875</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L10">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="M10">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1015,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1023,38 +1059,38 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.0873015873015873</v>
+        <v>0.174496644295302</v>
       </c>
       <c r="C11">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>123</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L11">
         <v>22</v>
       </c>
-      <c r="D11">
+      <c r="M11">
         <v>22</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>230</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11">
-        <v>0.7535211267605634</v>
-      </c>
-      <c r="L11">
-        <v>107</v>
-      </c>
-      <c r="M11">
-        <v>107</v>
-      </c>
       <c r="N11">
         <v>1</v>
       </c>
@@ -1065,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1073,13 +1109,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.06166219839142091</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1091,19 +1127,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K12">
-        <v>0.7446808510638298</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L12">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1115,21 +1151,45 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0.06989247311827956</v>
+      </c>
+      <c r="C13">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>0.04</v>
+      </c>
+      <c r="F13">
+        <v>0.96</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>346</v>
+      </c>
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K13">
-        <v>0.7358490566037735</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L13">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="M13">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1141,21 +1201,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K14">
-        <v>0.725</v>
+        <v>0.78125</v>
       </c>
       <c r="L14">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="M14">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1167,21 +1227,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K15">
-        <v>0.7241379310344828</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L15">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M15">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1193,21 +1253,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K16">
-        <v>0.6862745098039216</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="L16">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="M16">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1219,21 +1279,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K17">
-        <v>0.675</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="L17">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M17">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1245,21 +1305,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K18">
-        <v>0.6666666666666666</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L18">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1271,21 +1331,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19">
-        <v>0.66</v>
+        <v>0.70625</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1297,21 +1357,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K20">
-        <v>0.6507936507936508</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L20">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="M20">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1323,21 +1383,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K21">
-        <v>0.6276595744680851</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L21">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="M21">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1349,21 +1409,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K22">
-        <v>0.5953002610966057</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L22">
-        <v>228</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>228</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1375,21 +1435,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>155</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K23">
-        <v>0.5882352941176471</v>
+        <v>0.62</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1401,15 +1461,15 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K24">
-        <v>0.5833333333333334</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L24">
         <v>21</v>
@@ -1427,21 +1487,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K25">
-        <v>0.550561797752809</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L25">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="M25">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1453,21 +1513,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K26">
-        <v>0.5230769230769231</v>
+        <v>0.575</v>
       </c>
       <c r="L26">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1479,21 +1539,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K27">
-        <v>0.5118644067796611</v>
+        <v>0.5718015665796344</v>
       </c>
       <c r="L27">
-        <v>151</v>
+        <v>219</v>
       </c>
       <c r="M27">
-        <v>151</v>
+        <v>219</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1505,21 +1565,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>144</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K28">
-        <v>0.488235294117647</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L28">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="M28">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1531,21 +1591,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>174</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K29">
-        <v>0.4615384615384616</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L29">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M29">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1557,21 +1617,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K30">
-        <v>0.410958904109589</v>
+        <v>0.5176470588235295</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>176</v>
       </c>
       <c r="M30">
-        <v>30</v>
+        <v>176</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1583,21 +1643,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>43</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K31">
-        <v>0.3849372384937239</v>
+        <v>0.5152542372881356</v>
       </c>
       <c r="L31">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="M31">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1609,21 +1669,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K32">
-        <v>0.34375</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L32">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="M32">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1635,21 +1695,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33">
-        <v>0.2857142857142857</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L33">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M33">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1661,21 +1721,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K34">
-        <v>0.09090909090909091</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="L34">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M34">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1687,267 +1747,553 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>380</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K35">
-        <v>0.08433734939759036</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L35">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M35">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N35">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>380</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K36">
-        <v>0.07399103139013453</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="L36">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="M36">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="N36">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>826</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K37">
-        <v>0.07111111111111111</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L37">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="M37">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N37">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>836</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K38">
-        <v>0.05701078582434515</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L38">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M38">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N38">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>612</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K39">
-        <v>0.04948453608247422</v>
+        <v>0.390625</v>
       </c>
       <c r="L39">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M39">
         <v>25</v>
       </c>
       <c r="N39">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>461</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K40">
-        <v>0.03695150115473441</v>
+        <v>0.3849372384937239</v>
       </c>
       <c r="L40">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="M40">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="N40">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>834</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K41">
-        <v>0.03609939052977028</v>
+        <v>0.1496062992125984</v>
       </c>
       <c r="L41">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="M41">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="N41">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>2056</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K42">
-        <v>0.02911679068262698</v>
+        <v>0.1129807692307692</v>
       </c>
       <c r="L42">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="M42">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="N42">
-        <v>0.85</v>
+        <v>0.96</v>
       </c>
       <c r="O42">
-        <v>0.15</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>3001</v>
+        <v>369</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K43">
-        <v>0.02176165803108808</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="L43">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M43">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N43">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>944</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K44">
-        <v>0.01788515845622843</v>
+        <v>0.08173076923076923</v>
       </c>
       <c r="L44">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="M44">
+        <v>34</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K45">
+        <v>0.08165548098434004</v>
+      </c>
+      <c r="L45">
+        <v>73</v>
+      </c>
+      <c r="M45">
+        <v>73</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K46">
+        <v>0.05873261205564142</v>
+      </c>
+      <c r="L46">
+        <v>38</v>
+      </c>
+      <c r="M46">
+        <v>41</v>
+      </c>
+      <c r="N46">
+        <v>0.93</v>
+      </c>
+      <c r="O46">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K47">
+        <v>0.0581039755351682</v>
+      </c>
+      <c r="L47">
+        <v>19</v>
+      </c>
+      <c r="M47">
+        <v>19</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K48">
+        <v>0.05147402901263454</v>
+      </c>
+      <c r="L48">
+        <v>110</v>
+      </c>
+      <c r="M48">
+        <v>116</v>
+      </c>
+      <c r="N48">
+        <v>0.95</v>
+      </c>
+      <c r="O48">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K49">
+        <v>0.04994450610432852</v>
+      </c>
+      <c r="L49">
+        <v>45</v>
+      </c>
+      <c r="M49">
+        <v>45</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K50">
+        <v>0.04734411085450346</v>
+      </c>
+      <c r="L50">
+        <v>41</v>
+      </c>
+      <c r="M50">
+        <v>42</v>
+      </c>
+      <c r="N50">
+        <v>0.98</v>
+      </c>
+      <c r="O50">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K51">
+        <v>0.04320987654320987</v>
+      </c>
+      <c r="L51">
+        <v>21</v>
+      </c>
+      <c r="M51">
+        <v>21</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K52">
+        <v>0.03690514729685983</v>
+      </c>
+      <c r="L52">
+        <v>114</v>
+      </c>
+      <c r="M52">
+        <v>132</v>
+      </c>
+      <c r="N52">
+        <v>0.86</v>
+      </c>
+      <c r="O52">
+        <v>0.14</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K53">
+        <v>0.0219435736677116</v>
+      </c>
+      <c r="L53">
+        <v>70</v>
+      </c>
+      <c r="M53">
+        <v>81</v>
+      </c>
+      <c r="N53">
+        <v>0.86</v>
+      </c>
+      <c r="O53">
+        <v>0.14</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="N44">
-        <v>0.8</v>
-      </c>
-      <c r="O44">
-        <v>0.2</v>
-      </c>
-      <c r="P44" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q44">
-        <v>3130</v>
+      <c r="K54">
+        <v>0.02173913043478261</v>
+      </c>
+      <c r="L54">
+        <v>21</v>
+      </c>
+      <c r="M54">
+        <v>23</v>
+      </c>
+      <c r="N54">
+        <v>0.91</v>
+      </c>
+      <c r="O54">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K55">
+        <v>0.020671834625323</v>
+      </c>
+      <c r="L55">
+        <v>24</v>
+      </c>
+      <c r="M55">
+        <v>24</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>1137</v>
       </c>
     </row>
   </sheetData>
